--- a/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,08; 7,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 9,27</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 9,74</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 8,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 7,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 6,98</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>164,48%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>186,89%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>309,16%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>236,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>236,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>212,35%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-21,49; 1131,47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-13,27; 1191,87</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33,91; 1471,64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 1425,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,82; 705,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,54; 592,9</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 0,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 4,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 1,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 0,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 2,87</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,47; 201,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,34; 77,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,43; 160,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,8; 40,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,22; 19,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,26; 145,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,79; 53,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,39; 23,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,73; 102,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 4,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 2,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 4,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 4,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 1,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 3,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 1,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,45; 596,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,71; 842,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,39; 518,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,74; 465,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,95; 394,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,65; 165,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 303,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,21; 307,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,27; 144,11</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 2,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 2,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,01; 1,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; -0,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; -1,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 1,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; -0,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; -0,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,98%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,98; 175,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,62; 179,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,44; 245,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,05; 43,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,58; 2,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,08; -33,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,05; 39,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,1; 4,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,89; -10,56</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 1,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 5,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 1,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 2,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 3,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 2,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 1,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 3,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 1,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,65%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,72; 46,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,13; 200,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,01; 89,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,41; 196,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,94; 261,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,28; 227,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,82; 47,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,94; 122,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,05; 56,54</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 4,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 2,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 3,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 6,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 7,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 1,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 4,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 4,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 1,67</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,68%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,43%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>203,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,65%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,71%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-66,74; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>-30,7; 883,67</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 1056,91</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 664,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,16; 611,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,78; 276,07</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 2,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; -0,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 2,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 1,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 1,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 4,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 1,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 0,12</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 2,7</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,6%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,05%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,33; 107,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,53; 3,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,8; 97,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,35; 82,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,41; 84,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; 242,25</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,02; 57,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,3; 8,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,65; 103,8</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; -0,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 0,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 0,84</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 2,44</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 1,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 3,44</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 0,6</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 0,43</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 1,39</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,49%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,1%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,51%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,01%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,67%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,28%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,46; -2,86</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,59; 7,16</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,0; 20,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,83; 93,84</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,86; 58,88</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,74; 130,83</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,96; 18,7</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 12,61</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,9; 38,14</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,38</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,94</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,2</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,95</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,48</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 0,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,93</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 36,49</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 13,61</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,93; 33,93</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 38,28</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,31; 32,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 48,7</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 21,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,63; 14,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 30,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,98</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 4,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,27</t>
+          <t>0,77; 12,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 6,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,42</t>
+          <t>1,68; 9,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 5,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,98</t>
+          <t>2,08; 9,0</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>186,89%</t>
+          <t>259,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>236,92%</t>
+          <t>256,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>212,35%</t>
+          <t>258,05%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,73; 716,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 1191,87</t>
+          <t>0,88; 1611,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,47; 904,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 1425,86</t>
+          <t>15,97; 1583,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,01; 465,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 592,9</t>
+          <t>43,43; 739,92</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,08</t>
+          <t>-1,88; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,25</t>
+          <t>-1,25; 4,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,87</t>
+          <t>-1,02; 2,77</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>23,5%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 160,97</t>
+          <t>-47,85; 157,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 145,07</t>
+          <t>-27,0; 144,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 102,92</t>
+          <t>-23,47; 100,01</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,91</t>
+          <t>-1,79; 3,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,43</t>
+          <t>-2,61; 1,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,57</t>
+          <t>-1,49; 1,64</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>-12,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,26%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 518,99</t>
+          <t>-75,59; 532,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,65; 165,6</t>
+          <t>-75,58; 165,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 144,11</t>
+          <t>-56,69; 148,92</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-3,15</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,63</t>
+          <t>-3,08; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,51</t>
+          <t>-3,98; 2,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,48</t>
+          <t>-4,95; 2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -1,74</t>
+          <t>-7,82; -2,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,33</t>
+          <t>-3,24; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; -0,73</t>
+          <t>-5,27; -1,08</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,61%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-73,11%</t>
+          <t>-77,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>-20,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-63,98%</t>
+          <t>-67,46%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 175,08</t>
+          <t>-67,76; 218,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,44; 245,31</t>
+          <t>-93,5; 244,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 43,06</t>
+          <t>-62,68; 54,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,08; -33,21</t>
+          <t>-91,73; -44,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 39,3</t>
+          <t>-56,19; 41,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-83,89; -10,56</t>
+          <t>-86,16; -14,34</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,43</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,8</t>
+          <t>-6,31; 1,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 2,8</t>
+          <t>-5,0; 2,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,24</t>
+          <t>-4,16; 1,08</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-40,72%</t>
+          <t>-40,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>-24,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>-33,16%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,01; 89,29</t>
+          <t>-81,96; 88,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-77,28; 227,88</t>
+          <t>-78,68; 173,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-68,05; 56,54</t>
+          <t>-67,95; 52,31</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,64</t>
+          <t>-1,06; 3,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,15</t>
+          <t>-3,31; 1,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,67</t>
+          <t>-1,5; 1,64</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-30,96%</t>
+          <t>-31,99%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 276,07</t>
+          <t>-64,83; 276,34</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,28</t>
+          <t>-2,75; 2,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,73</t>
+          <t>-1,75; 3,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,7</t>
+          <t>-1,37; 2,43</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>22,65%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-56,8; 97,88</t>
+          <t>-55,62; 99,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 242,25</t>
+          <t>-41,34; 187,63</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 103,8</t>
+          <t>-32,85; 88,29</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,84</t>
+          <t>-5,57; -0,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,44</t>
+          <t>-1,26; 3,22</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,39</t>
+          <t>-3,09; 0,81</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-32,51%</t>
+          <t>-47,33%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-19,17%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 20,11</t>
+          <t>-80,17; -7,42</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 130,83</t>
+          <t>-25,89; 122,02</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 38,14</t>
+          <t>-57,15; 20,7</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,94</t>
+          <t>-1,3; 1,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,48</t>
+          <t>-0,86; 1,25</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,93</t>
+          <t>-0,73; 0,87</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 33,93</t>
+          <t>-34,3; 34,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 48,7</t>
+          <t>-21,01; 41,23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 30,74</t>
+          <t>-19,43; 27,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,98</t>
+          <t>-1,05; 5,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,0</t>
+          <t>-0,03; 6,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,62</t>
+          <t>0,38; 12,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,53</t>
+          <t>-0,57; 6,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,74</t>
+          <t>2,14; 10,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,03</t>
+          <t>1,81; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,22</t>
+          <t>0,25; 4,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,2</t>
+          <t>2,14; 7,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,0</t>
+          <t>2,29; 9,2</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,73; 716,71</t>
+          <t>-49,08; 712,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 1131,47</t>
+          <t>-18,9; 936,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1611,96</t>
+          <t>-18,89; 1593,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 904,92</t>
+          <t>-40,77; 1059,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,91; 1471,64</t>
+          <t>36,57; 1620,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 1583,86</t>
+          <t>29,19; 1411,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 465,3</t>
+          <t>1,8; 465,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,82; 705,94</t>
+          <t>49,55; 717,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,43; 739,92</t>
+          <t>65,02; 888,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,94</t>
+          <t>-1,5; 3,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,19</t>
+          <t>-3,25; 1,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,97</t>
+          <t>-1,8; 3,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,79</t>
+          <t>-4,43; 0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,53</t>
+          <t>-4,46; 0,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,21</t>
+          <t>-1,4; 4,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,47</t>
+          <t>-1,97; 1,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,48</t>
+          <t>-3,04; 0,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,77</t>
+          <t>-0,96; 2,91</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 201,51</t>
+          <t>-36,4; 218,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,34; 77,91</t>
+          <t>-75,21; 105,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 157,23</t>
+          <t>-45,54; 187,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,8; 40,06</t>
+          <t>-76,07; 34,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,22; 19,15</t>
+          <t>-74,41; 29,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 144,32</t>
+          <t>-25,55; 141,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 53,21</t>
+          <t>-44,27; 61,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 23,68</t>
+          <t>-63,68; 13,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 100,01</t>
+          <t>-21,27; 107,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,23</t>
+          <t>-1,59; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,51</t>
+          <t>-1,28; 3,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,02</t>
+          <t>-1,83; 2,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,57</t>
+          <t>-0,81; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,22</t>
+          <t>-1,22; 4,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,43</t>
+          <t>-2,29; 1,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,27</t>
+          <t>-0,25; 3,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,24</t>
+          <t>-0,46; 3,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,64</t>
+          <t>-1,55; 1,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 596,94</t>
+          <t>-62,8; 579,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 842,35</t>
+          <t>-60,35; 596,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 532,48</t>
+          <t>-76,55; 577,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 465,18</t>
+          <t>-31,04; 481,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 394,44</t>
+          <t>-50,13; 476,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,58; 165,44</t>
+          <t>-70,12; 206,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 303,74</t>
+          <t>-13,61; 328,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 307,47</t>
+          <t>-23,09; 291,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 148,92</t>
+          <t>-59,33; 145,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,19</t>
+          <t>-3,08; 3,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,39</t>
+          <t>-3,36; 2,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,44</t>
+          <t>-3,88; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,05</t>
+          <t>-5,37; 1,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -0,41</t>
+          <t>-6,99; -0,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; -2,1</t>
+          <t>-7,86; -2,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,41</t>
+          <t>-3,54; 1,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,09</t>
+          <t>-4,2; 0,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -1,08</t>
+          <t>-5,57; -1,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,76; 218,65</t>
+          <t>-70,95; 222,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,62; 179,3</t>
+          <t>-74,92; 196,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,5; 244,62</t>
+          <t>-94,08; 353,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 54,47</t>
+          <t>-65,95; 52,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,58; 2,79</t>
+          <t>-80,87; -6,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-91,73; -44,03</t>
+          <t>-91,5; -43,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 41,98</t>
+          <t>-57,8; 38,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 4,54</t>
+          <t>-67,79; 8,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,16; -14,34</t>
+          <t>-87,56; -19,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,16</t>
+          <t>-5,9; 1,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,62</t>
+          <t>-4,13; 5,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,84</t>
+          <t>-5,99; 1,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 2,97</t>
+          <t>-4,69; 2,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 3,94</t>
+          <t>-4,31; 3,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,32</t>
+          <t>-4,84; 2,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,11</t>
+          <t>-4,64; 1,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,39</t>
+          <t>-2,98; 3,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,08</t>
+          <t>-4,43; 0,92</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-85,72; 46,4</t>
+          <t>-83,18; 83,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,13; 200,03</t>
+          <t>-68,08; 199,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,96; 88,73</t>
+          <t>-83,19; 82,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-80,41; 196,72</t>
+          <t>-79,87; 218,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-72,94; 261,94</t>
+          <t>-79,07; 227,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,68; 173,62</t>
+          <t>-76,08; 160,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-71,82; 47,05</t>
+          <t>-70,56; 43,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 122,61</t>
+          <t>-54,1; 133,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-67,95; 52,31</t>
+          <t>-70,41; 37,75</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,22</t>
+          <t>-0,6; 4,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,64</t>
+          <t>-1,62; 2,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,59</t>
+          <t>-1,1; 3,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,55</t>
+          <t>-0,74; 6,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,61</t>
+          <t>0,68; 7,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,12</t>
+          <t>-3,36; 1,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,49</t>
+          <t>0,34; 4,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,3</t>
+          <t>0,44; 4,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,64</t>
+          <t>-1,61; 1,6</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-66,74; —</t>
+          <t>-63,89; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,44 +1881,44 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,83; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 883,67</t>
+          <t>-33,22; 967,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,78; 1056,91</t>
+          <t>1,39; 1067,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,6; 265,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 664,43</t>
+          <t>-1,46; 576,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 611,21</t>
+          <t>6,27; 639,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-64,83; 276,34</t>
+          <t>-68,0; 260,88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,58</t>
+          <t>-2,35; 2,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,22</t>
+          <t>-4,3; -0,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,37</t>
+          <t>-2,68; 2,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,52</t>
+          <t>-2,06; 1,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,54</t>
+          <t>-2,65; 1,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,91</t>
+          <t>-1,71; 4,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,45</t>
+          <t>-1,51; 1,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,12</t>
+          <t>-2,86; 0,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,43</t>
+          <t>-1,17; 2,51</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 107,83</t>
+          <t>-49,41; 107,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-85,53; 3,91</t>
+          <t>-87,03; -0,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-55,62; 99,92</t>
+          <t>-53,01; 101,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 82,12</t>
+          <t>-53,61; 107,93</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 84,21</t>
+          <t>-67,96; 92,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 187,63</t>
+          <t>-37,84; 204,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 57,5</t>
+          <t>-38,86; 64,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-69,3; 8,11</t>
+          <t>-69,13; 2,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 88,29</t>
+          <t>-27,99; 95,82</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -0,29</t>
+          <t>-4,98; -0,14</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,15</t>
+          <t>-4,41; 0,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,22</t>
+          <t>-5,74; -0,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,44</t>
+          <t>-2,02; 2,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,51</t>
+          <t>-2,61; 1,68</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,22</t>
+          <t>-1,27; 3,03</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,6</t>
+          <t>-2,88; 0,42</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,43</t>
+          <t>-2,83; 0,24</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,81</t>
+          <t>-3,01; 0,82</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-69,46; -2,86</t>
+          <t>-69,87; 0,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-65,59; 7,16</t>
+          <t>-65,31; 9,69</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-80,17; -7,42</t>
+          <t>-80,8; -6,36</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 93,84</t>
+          <t>-42,42; 93,31</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 58,88</t>
+          <t>-53,73; 65,06</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 122,02</t>
+          <t>-28,41; 113,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 18,7</t>
+          <t>-51,01; 12,48</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 12,61</t>
+          <t>-49,22; 7,56</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 20,7</t>
+          <t>-54,83; 21,07</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,0</t>
+          <t>-1,09; 0,94</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,38</t>
+          <t>-1,57; 0,42</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,04</t>
+          <t>-1,34; 0,92</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,2</t>
+          <t>-0,88; 1,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,95</t>
+          <t>-0,86; 1,13</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,25</t>
+          <t>-0,75; 1,36</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,68</t>
+          <t>-0,64; 0,75</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,45</t>
+          <t>-0,91; 0,48</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,87</t>
+          <t>-0,69; 0,88</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 36,49</t>
+          <t>-27,19; 31,98</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 13,61</t>
+          <t>-38,87; 15,33</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 34,69</t>
+          <t>-34,45; 31,48</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 38,28</t>
+          <t>-21,98; 37,9</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 32,1</t>
+          <t>-21,9; 38,23</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 41,23</t>
+          <t>-18,42; 44,81</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 21,51</t>
+          <t>-16,74; 24,27</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 14,4</t>
+          <t>-24,06; 15,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 27,18</t>
+          <t>-18,51; 28,23</t>
         </is>
       </c>
     </row>
